--- a/Note/2 自动化阶段/15、20220413excel操作+excel数据读取封装+unittest框架(一)/day15/case_data.xlsx
+++ b/Note/2 自动化阶段/15、20220413excel操作+excel数据读取封装+unittest框架(一)/day15/case_data.xlsx
@@ -1,257 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19140" windowHeight="4967" tabRatio="547"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19140" windowHeight="4967" tabRatio="547" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="upload" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="upload" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>is_upload</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>expected_data</t>
-  </si>
-  <si>
-    <t>extract_data</t>
-  </si>
-  <si>
-    <t>登陆成功</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8108/adminLogin</t>
-  </si>
-  <si>
-    <t>{
-            "t": "",
-            "principal":"#user_name#",
-            "credentials":"123456a",
-            "sessionUUID": "#sessionUUID#",
-            "imageCode":"lemon"
-        }</t>
-  </si>
-  <si>
-    <t>{"token_type": "bearer"}</t>
-  </si>
-  <si>
-    <t>{"access_token":"$..access_token"}</t>
-  </si>
-  <si>
-    <t>登陆失败</t>
-  </si>
-  <si>
-    <t>{
-            "t": "",
-            "principal":"#user_name#",
-            "credentials":"11111",
-            "sessionUUID": "#sessionUUID#",
-            "imageCode":"lemon"
-        }</t>
-  </si>
-  <si>
-    <t>{"response": "账号或密码不正确"}</t>
-  </si>
-  <si>
-    <t>上传图片</t>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8108/admin/file/upload/img</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -551,163 +474,163 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,11 +686,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1056,201 +1042,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="3.33333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.55555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.55555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.4444444444444" style="1" customWidth="1"/>
+    <col width="3.33333333333333" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.555555555555561" customWidth="1" style="1" min="2" max="2"/>
+    <col width="6.55555555555556" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13.3333333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="40.8888888888889" customWidth="1" style="1" min="5" max="5"/>
+    <col width="47" customWidth="1" style="1" min="6" max="6"/>
+    <col width="43.5555555555556" customWidth="1" style="1" min="7" max="7"/>
+    <col width="50" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.4444444444444" customWidth="1" style="1" min="9" max="9"/>
+    <col width="34.4444444444444" customWidth="1" style="1" min="10" max="10"/>
+    <col width="18.4444444444444" customWidth="1" style="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>is_upload</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>extract_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="117" customHeight="1" s="1">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>登陆成功</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>http://mall.lemonban.com:8108/adminLogin</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{
+            "t": "",
+            "principal":"#user_name#",
+            "credentials":"123456a",
+            "sessionUUID": "#sessionUUID#",
+            "imageCode":"lemon"
+        }</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{"token_type": "bearer"}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>{"access_token":"$..access_token"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="117" customHeight="1" s="1">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>登陆失败1</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>http://mall.lemonban.com:8108/adminLogin</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{
+            "t": "",
+            "principal":"#user_name#",
+            "credentials":"11111",
+            "sessionUUID": "#sessionUUID#",
+            "imageCode":"lemon"
+        }</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>{"response": "账号或密码不正确"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" ht="117" customHeight="1" spans="1:8">
-      <c r="A2">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" ht="117" customHeight="1" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin"/>
-    <hyperlink ref="E3" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin"/>
+    <hyperlink ref="E2" display="http://mall.lemonban.com:8108/adminLogin" r:id="rId1"/>
+    <hyperlink ref="E3" display="http://mall.lemonban.com:8108/adminLogin" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="6.11111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.8888888888889" style="1" customWidth="1"/>
+    <col width="6.11111111111111" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.888888888888889" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10.5555555555556" customWidth="1" style="1" min="4" max="4"/>
+    <col width="69.4444444444444" customWidth="1" style="1" min="5" max="5"/>
+    <col width="54.3333333333333" customWidth="1" style="1" min="6" max="6"/>
+    <col width="25.1111111111111" customWidth="1" style="1" min="7" max="7"/>
+    <col width="36.8888888888889" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>is_upload</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>extract_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="117" customHeight="1" s="1">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>登陆成功</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>http://mall.lemonban.com:8108/adminLogin</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{
+            "t": "",
+            "principal":"#user_name#",
+            "credentials":"123456a",
+            "sessionUUID": "#sessionUUID#",
+            "imageCode":"lemon"
+        }</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{"token_type": "bearer"}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>{"access_token":"$..access_token"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="117" customHeight="1" spans="1:8">
-      <c r="A2">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>上传图片</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>http://mall.lemonban.com:8108/admin/file/upload/img</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin"/>
-    <hyperlink ref="E3" r:id="rId2" display="http://mall.lemonban.com:8108/admin/file/upload/img"/>
+    <hyperlink ref="E2" display="http://mall.lemonban.com:8108/adminLogin" r:id="rId1"/>
+    <hyperlink ref="E3" display="http://mall.lemonban.com:8108/admin/file/upload/img" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>